--- a/data/CreateOpp.xlsx
+++ b/data/CreateOpp.xlsx
@@ -20,21 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">Opportunity Names</t>
   </si>
   <si>
     <t xml:space="preserve">Sales Automation by Naveen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Automation by Rani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Automation by Praba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sales Automation by Raj</t>
   </si>
 </sst>
 </file>
@@ -135,13 +126,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1012" style="0" width="11.52"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -151,21 +145,6 @@
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
